--- a/biology/Zoologie/Érione_de_Buquet/Érione_de_Buquet.xlsx
+++ b/biology/Zoologie/Érione_de_Buquet/Érione_de_Buquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rione_de_Buquet</t>
+          <t>Érione_de_Buquet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriocnemis luciani
 L'Érione de Buquet, Érione de Lucien ou Érione catherine (Eriocnemis luciani) est une espèce de colibris présents en Colombie, Équateur et Pérou.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rione_de_Buquet</t>
+          <t>Érione_de_Buquet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de hautes altitudes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rione_de_Buquet</t>
+          <t>Érione_de_Buquet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après Alan P. Peterson[1], 5 sous-espèces ont été décrites :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson, 5 sous-espèces ont été décrites :
 Eriocnemis luciani baptistae  Schuchmann, Weller &amp; Heynen 2001
 Eriocnemis luciani catharina  Salvin 1897
 Eriocnemis luciani luciani  (Bourcier) 1847
